--- a/DateTables/Datas/ショップ.xlsx
+++ b/DateTables/Datas/ショップ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11284580-F3FF-4F0B-B561-4584131953A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C0E67-7B30-4E93-810E-7595471EA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="1590" windowWidth="24540" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>models.item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,13 +202,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,7 +494,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,16 +519,16 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5"/>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -541,14 +541,14 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
@@ -561,13 +561,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -592,24 +592,33 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>10001</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="2">
+        <v>200001</v>
+      </c>
       <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10000</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -619,11 +628,20 @@
       <c r="B7" s="2">
         <v>10002</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D7" s="2">
+        <v>200002</v>
+      </c>
       <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15000</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
@@ -633,11 +651,20 @@
       <c r="B8" s="2">
         <v>10003</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D8" s="2">
+        <v>200003</v>
+      </c>
       <c r="E8" s="2">
+        <v>300</v>
+      </c>
+      <c r="F8" s="2">
         <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20000</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
@@ -650,8 +677,17 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>10000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
@@ -664,8 +700,17 @@
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="2">
+        <v>200001</v>
+      </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>90</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>

--- a/DateTables/Datas/ショップ.xlsx
+++ b/DateTables/Datas/ショップ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C0E67-7B30-4E93-810E-7595471EA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC53CF66-8C3D-47C9-9F5D-025A9C092AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15585" yWindow="3120" windowWidth="19530" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
